--- a/104 vis/101 D-Tale/CN.xlsx
+++ b/104 vis/101 D-Tale/CN.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,31 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>郭德培</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCQdvC5UForW6clDpPpFHnkXoKqiH65aFmTBITgRCAeHK1/fl4RbokDITyXA5tFA5O4HLueN7LLTBFu/q6w9FbOz8NWtLK0TGoFHyfNut7dD6CjMxqvgfV/E8ry9ozV8Bs8nZLF8YjqWPeWkQP/Gpv5fq5+WV87X1873ggFpMawCtXeGgk35+OIMtYEcN/8FrBNTUzKtjUssNzBLvTSQCFhZmUjshHGLtPBrGObGycXNLkJ7Xf8/z9HFvDtF5EHa2tUkm4Cjql5eiwiXAoNHf2J2PAy5O1xK9GXUXkOHGFafqkFLChVGnsd6KJDM0h3pUjZzTGql1mJEKASbQE0WYwt+EFd3huLIYTu2m8XKUh7+jL8+2FYODLNm1UExnPFHYlvyyBu0vXJdeMRIuc6yKLYk0sNZqpHgqRwwzg+0L/8q78lINKuSV6n6JPS5+/CXrtbaWFVurrOjbBCKTTzUCHAxBP2O3mw/I07zlc5MT6yxQxiUUsKlEteew3atCks9qgmfsFHfFPV+NBX2wPZ37qNbOc3dr8JKOLdZwboNd8LGA9aAODC5PlxaelPnKoYs/MZrMj66NLkrhLaFCrvVfRW+/7FyoJr3QF86wLr2WRBMRT8uilO6p6Sf+JJVmc+cQJzQytCKSVczwlBU6WmRSnrQv9rjby7gX31TEkxhhp244eHx9WffqUlEwXFs31K1eTEgWUa8dWoxgdvnN5f3JEMQ6EL27ZxE6wPVcY6GtGooHsY5GY1nrdAw71pPC5Jqk/yp4xJmbkblIq1Fwtw4RGkMvQxqNJISUdopNfm7ccYrVD5Tby8aPKmitm+XeyuBNfS8JUGHzQQLYsFLI6S0VmA1GH8nrIfcv46cSIHPhhIxiLXpQtBuIxQXAVfZdZqEXOtsR9JuVN+me4xxUtPbB0kd0gf+hkpovo8CcZ9+q2i20/OIlhKrHlTXKOI08hmFePsjyfd+ZA3UeLyGEBpieNh88bk3sJdNbpeYtcjKt7/XbRbn2vImtWyutjefuLRNf71qVHAdlKc9T4fdZG/Ab3xsbZ2o5dvqaW58o4TaxSWSYw+yRgCkjaMjXJPgfxaWy1+KUMfrr+wt4pak8z0/TSMBpuMpQreGOj4mlffQwIhPq5xMqPsiBvHkCzyvznEH1l5mc+TM6qm7oUeT2ajUXbIeS3CmJ37oU0pqzwGB52Uz11q2OqurWfsDCpmiEl3fo4SvoGnfExQb/KOzoVxGQV//1yIe3dmG49DasaVCUpUMhx9I+kW6KdELlUcOOeJIgDLH93V33j4BwtS7ABLkRjSVseYUD79hmJTSuYJCnENoGtb2zbBWdUgHfl2ubcu770eOwqsoT0l7PLp3bvbS7WTqW2NgcKvM11z+3U++0YOrVylHtGlhXBW21kG9lci8L3l3ZA16SdOag+EkewWeZVFvBkIS/yz0nZ77dvWymIGvYN7jmRh0NDpifYrsAuWHVL0kUmunPac9Py/oYfwxnkF3yKtb2fUn4N+FWJ9khX5BKR6ifn7IZEHYExoSfOj2Em1O7wA+j4gYS9er8IgD0wMPMM0hJd1eZAmjlRHk+onXiLiGNhfa0gsG6EaaiwBmne2t6GZ9ij53wa5hCQ3LkTxkgfo+tGuuTeQF0e7RJ8N3MuhSAvPpOzpTcm+XbLk1yDQOtMlauMOapORcbn+0nUlnq+u4reKOYTf72Qffpk0q0fiu8uRY8mF7pHuf3BNhVA4HsKIgqvS76R9iyBIba6gk4Lv1DUD1Omnjqf+JiIqNPpjGY4LrE6QmrDfc/8dXBiMx2Mun8+5/qSQFe6sAhB2yC6HwvWKGblNYIvN622G3UXI9Do8OA1xsiGKs6isnZbCKSdJI/TD79Ewq8tJWaCiIXHqqWa2gnmoUBHuxHb1oawbPKjPlsFf1ZPCyJ9RjYx11DE9EJGv7o9FD2uWhq8IYBPOu7MaXlomZ9N2mT1dMJoX8f/HfNGTedIi56Cgx55jhimhO4d4s1p8k1jRqF7dkuvYDdQpOua7b0uZO+CJbAdbQtJIJ5H9cSFhkVdH4Q6o35cqNvBqW+Ml4HxQMI1ESpIeGWP66MeEvCLvjnNfSZO4WsShekzdD2zbHu6PZmNkrorNNU5jBO7KR+s++qw9+YVOq0drWHSUfs7STtKpGF1+V+f5TtOdMi+pimnucivIqa5nZ6NJ7hs2aU66thiQ8agAM/sK9EP3A+fd4/neyPcOjgko4ZNcXoeGkIoRDFNI9s6aoRRJzZaNc8IojOI30bR5tt0ZsyNERnHtZeOCZQERJRUGe2NfheJf8uzc+6bi7u/V+lKYkkcuVeJc2jYszQskh/kRv6+znqUW9z03YsVIknOrAPsd9JhWzDtPCjqtks+9oPF2NWMqtkPkaeeZ4SLE76+i6swhcBoZZ2VXzyNW+/egsumSgiMyU4UN1j/0ajiLOwO6/ySG8T+DFdh16kHR5EoulgOZR67jTZ2hHEjmNv0XLYytJStIY7FZy3q6vrzSZSQoBgHucoIRpl1xMwyREjpM1SyuXIjH6LkmtaGPgsqlMNf32qRrnmQlf/TXhF83WMHyxan3vGG8CsQHqa41qoq3k4rbn4tIdQL6A1ieTrUNXpD6xS9q2v+7xyJ9ze4RzTWztckBLPZu7YHKTf3wY/Qqujc5MBUuXLy5zScI9y4kyjw5u4oBpoXXvhlH7c7+XEMeUFwMs2AY6Qg7bgg56FCq5iwpQwZTAePkMg7+xiUoc3yrIf1Q906F5Wr+vODLjvglW5QPTMTNVJ0tTnjKrbzDA1xCzkeV2/ZapCoYXodZ5xamxzYQnV4I9boNncztb/bVqod9jdRnIdBmnNLnDY7HdT2mt/8liMLbx3UFaCyK3raCQvD4/FTHLylO6WZUlXnKJzEodKkOTQb191hGgLX6ny5d3okl8Xc3aVHENRX50QrDifkVI1aKGj6JI0fX9Ra4uOYBxNk3zzwCqp8vS0HGbpjRDPpwkC73DIVGAad++yU817X95mrvoaTyOQU6lPyWUvjsFYlBVil0RwvIZsPQwt/1ledoQhva9aQCXld+9w3pJweUz0lj1EpSknXR7A/G/JK6kCxKMlUoCoUB2Oe8PgrvWgkq4/S4k/X/+u47+bmRitrDqPp/F9hQ==</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,7 +75,7 @@
   </si>
   <si>
     <t>数据来源：东方财富Choice数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +93,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -237,22 +201,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -270,24 +234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="EMFunc"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="EM_EDB_N"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,10 +515,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="str">
-        <f>[1]!EM_EDB_N("1990-12-31","N","Columns=Name,Frequency,Unit,Source&amp;Order=1&amp;DateFormat=1&amp;Chart=1&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
-        <v>宏观数据</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -7490,9 +7433,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>